--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45881.44344907408</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45919</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45680</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>46041.35824074074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45394.65423611111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45707.68733796296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44430.64592592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45527.42421296296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45841.43662037037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45841.39545138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45846</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45873.45134259259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45645.23799768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46021.36634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46049.57305555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45530.72401620371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44426.73547453704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44613.44670138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44421.57394675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44594</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44453.38615740741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44463.3428125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44459</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44371</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44503.85619212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44585</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44546</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44529.63019675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44380</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44380.30938657407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44391.61811342592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44827</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44603</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44246</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44315</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44586.42604166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44245</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44239</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44463</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44314</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44380.32061342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44508.88515046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44613</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44727.59222222222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44356.85369212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44383.80697916666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44844.84521990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44541.85745370371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44370.75695601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44331.68225694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44447.68680555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44837</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44477.71097222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44246</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44246</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44455.50283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44280.27939814814</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44466.45636574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44427.60192129629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44659.61706018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44701</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44579</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44341.60505787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44474.2569212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44389</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44721</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44670</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44524.6277662037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44344</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44487.32478009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44750.54332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44678.61560185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44858.33900462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44887.65707175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44887.6541087963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44387.37766203703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44358.40704861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44418.66804398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44348</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44379.33491898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44635.29614583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44811.48283564814</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44650</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44568</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44369</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44424.37128472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44447.61085648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45369.62409722222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45454</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45290</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45770.86675925926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44382.60047453704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45009.42462962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45481.53797453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45617</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44988.48039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45590.92597222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45694.52530092592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44454.62340277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45670</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45021.62957175926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45754.70548611111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45213</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45720.67452546296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>45419.63797453704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45219</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45302.73747685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45238.67873842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45154</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>45680.36491898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45031.42637731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44867.47905092593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45277</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45306</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45166.47346064815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45380</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45275</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45238.70225694445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45162</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45503</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44945</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45637.48994212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45328.54533564814</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45460.38153935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45259.57592592593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45728.48049768519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45742</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45356.42046296296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45733.47133101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45737.42380787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45723.3394675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45729.67428240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45729</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45109</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45803.60734953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45799.76940972222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45267</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45335</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>45335.73070601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45189</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45188.2929050926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45485.59034722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45317.64331018519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45887.44935185185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45887.46252314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45604.32130787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45800.37456018518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45211.99126157408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45804</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45693.58241898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45805</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45804.4540162037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44819.28025462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45303.49871527778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45732.45341435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45758</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45786</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45014.57861111111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45800.67922453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45888.76606481482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45888.76744212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45679.33732638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45460.38287037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45734.39568287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45889.47633101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45889.47859953704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45889.48162037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45890.66550925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45890.88939814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45890.46839120371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45890.29753472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44928</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45181.6131712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45892.29917824074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45848</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44298</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45818.58399305555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45475.38969907408</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45899.29246527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45899.26381944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44484.38644675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45818.58465277778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45899.2575462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45899.30020833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45900.7175462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45182</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45818.57579861111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44277</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45899.24924768518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45412.52857638889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45899.29828703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45901.54266203703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45898</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45677</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45188</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44453.40046296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45671.94960648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45905.52668981482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45904.33833333333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45904.33302083334</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45905.52935185185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45821.3912037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45904.45729166667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45873.44144675926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45904.44297453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45824.31563657407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45821</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45824</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45824.31346064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45908.83310185185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45824.31116898148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45907.87585648148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45907.87936342593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45907.87704861111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45694</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45402.23428240741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45821.34864583334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45737.68915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45737.68998842593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44472.45174768518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45776.54270833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45827.56010416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45831.36836805556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45911.39112268519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45496.69783564815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45446</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45904.66633101852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45041</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44945</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45154.79920138889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45916.5824074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45917</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45917</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45046</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45831.36633101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44699.73524305555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45919.29105324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45922.64782407408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45922.64138888889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45922.65359953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45922.64466435185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45922.6462962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45923.66177083334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45924</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45924</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45833.49554398148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45212</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45924.58665509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45924.58829861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>45794.25789351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45924</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45926.69854166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45618.70239583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45930.56075231481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45600.46143518519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45488</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45930.56141203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45931.48114583334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45838.5287962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45625.46094907408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45837.88903935185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44928</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44928.61333333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45732.43990740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45841.49357638889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45841.49430555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45841.4927662037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44904.68769675926</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45841.42</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44487.27475694445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45841.39407407407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45841.42442129629</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45841.44113425926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44356.45002314815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45322</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45841.44262731481</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45841.49510416666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45841.43451388889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45843.32988425926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45942.47396990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45943</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45943.68398148148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45842.42921296296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45211.98679398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45760</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45245</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45077</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45843.32826388889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45843.33149305556</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45343.79310185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45692.76652777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45847.32769675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45944.81758101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44609</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45215.69435185185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44264</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45747</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45083.58858796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45573.70368055555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45791.82400462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45946.9609375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44946</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45460.23224537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45848</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44873.59988425926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45244</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45947.37923611111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45370.62805555556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45757</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45951</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>45721</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45358</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>45215.84091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45365.65668981482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45365.69532407408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44946</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45791.82179398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44586.58008101852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45335.7203125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44956.70082175926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45631</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45953.6449537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45106</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45412.40754629629</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>45953.84179398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>45595.87626157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>45870.48773148148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45601.49810185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45873.71123842592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45959.71396990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45732.85637731481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45874.44326388889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44980.61770833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45361.83712962963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44541.81983796296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44848.48673611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45713.53767361111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44867.47667824074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44873.6115625</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45964.6665625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44776.37015046296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45881.44418981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45880</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45964.28807870371</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45881.43841435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45880.72608796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45880.72768518519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45965.39746527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45880.72895833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>45880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45277</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>45742.76833333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45448</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45398.37391203704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45969.8789699074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45970.32664351852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45709</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44826</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44826</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>45702.38320601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45973</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45784.67101851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45742.76657407408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45841.43238425926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45975.55768518519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45212</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45363.64902777778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45008.58983796297</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45721</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45622.68585648148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45391.76744212963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45391.76984953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>46020.64570601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45645.24053240741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>46021.3608912037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45299</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45118</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44928</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45279.35089120371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45188.47842592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45980.65744212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45980.36643518518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45980</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44804</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45622.69251157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45644</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44432.31958333333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45985</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45454.29613425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45112.50153935186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45771.44607638889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45187.41074074074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45986.45755787037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44858</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45460.23820601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45987.46350694444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45063.37902777778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45259.51030092593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45209.48993055556</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45320.69017361111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45372</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45372</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45567.64372685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>46030.68255787037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45343</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45169</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45566.3941550926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45184</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45154</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45992</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45760</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45992.95173611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45009.42696759259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45994.2549074074</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44356.83127314815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45995.6600925926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44956</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44664</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45630.84928240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45995</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45281.60759259259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45091.8662962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45610</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45694.66690972223</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>46038.66329861111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>44974</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45720</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46041.35619212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45210</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45999.5750462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>46041.36143518519</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45999.59483796296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46000.79803240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>46043.4240162037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44858.70806712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>46000.80445601852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45602.38793981481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45751.64454861111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>46000.79586805555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>46001.60348379629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44274.85268518519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>44442.22429398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45203.64381944444</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45680.34590277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>46044</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45694.52599537037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45380.30173611111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45103.36048611111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45604.37716435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45257.60269675926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45302.68533564815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45069.67884259259</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46049.57417824074</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46048.35840277778</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46048.37540509259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46048</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45693.30753472223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46008.30789351852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45168.32784722222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46044.34333333333</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46051.84416666667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46051.42804398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>46008.30554398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44460</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45404</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>46010.66601851852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>46055.6831712963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45215.55824074074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>46055</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45259.51289351852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45140.485</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>46055.68438657407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>46052</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>46056.53222222222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45610.79056712963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45266.63684027778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44874.65327546297</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45614.85831018518</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>46057.72910879629</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45919</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45246</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45595.87185185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45671.36034722222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44484.45483796296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46056.53511574074</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46057</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>46059.69574074074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>46059.69427083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44664</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45210</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44902</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45562</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45198</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>44383</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45590.94525462963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45595.88085648148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45562</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45236.29085648148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45419.33035879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45756</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44813.75790509259</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45601</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44816</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45169</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45685.68592592593</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44235</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45734.65965277778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45372</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45372</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45372</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44460.50841435185</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45132</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44816.43815972222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44972.633125</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>44994</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45373.63032407407</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>45394.574375</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44993.72670138889</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>45219</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>45695.5090625</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34583,7 +34583,7 @@
         <v>45617.5908449074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44564</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44985</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44234</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45372</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45372</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45617.44506944445</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45190</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44617</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45671.3547337963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44418.6292824074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44344</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45708.71021990741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45692</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44974</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45109.47741898148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45014.67738425926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44988.55130787037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45645.2422337963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44904.69564814815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44894.53177083333</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45695.51128472222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45408.63834490741</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45162</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44826</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44608</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44976.42289351852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45213</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45343.63950231481</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44881</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44454</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45377</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>44659</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>45264.82974537037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45700.58738425926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>44916.56637731481</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         <v>44984.64765046296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36749,7 +36749,7 @@
         <v>45579.48553240741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36806,7 +36806,7 @@
         <v>45187.41255787037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45308</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44992.46184027778</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45238.69797453703</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45275</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45181.67774305555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45760</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45760</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45760</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45732.44554398148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45275</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45751.64311342593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45099</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45056.50663194444</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45616.31275462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>44665</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44463.60155092592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>44848.67672453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>44848.67853009259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45309</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45733</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45113.59415509259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>44874</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45273.37284722222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45204.4794212963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45734.44627314815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45163</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45307.28674768518</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45611</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45316</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38583,7 +38583,7 @@
         <v>44902</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38640,7 +38640,7 @@
         <v>44902</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38697,7 +38697,7 @@
         <v>45760</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38754,7 +38754,7 @@
         <v>45013</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38811,7 +38811,7 @@
         <v>45109.71393518519</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45602.39266203704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         <v>45685.7355787037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>45448</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>45702.37709490741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45702.38725694444</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45376</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>44330</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45328.40877314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>44965.67059027778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45713.55327546296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45551.65130787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45275.70342592592</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45277.82450231481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45611</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45776.53418981482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45776.85799768518</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39780,7 +39780,7 @@
         <v>45785.59581018519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45615.73449074074</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>45784.65938657407</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>45784.67052083334</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40008,7 +40008,7 @@
         <v>45599.49371527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44605.34027777778</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40179,7 +40179,7 @@
         <v>45586.38421296296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>45791.8044212963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         <v>45791.81430555556</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40350,7 +40350,7 @@
         <v>45791.85385416666</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40407,7 +40407,7 @@
         <v>45791.79814814815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40464,7 +40464,7 @@
         <v>45791.80203703704</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>45791.80574074074</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>45791.79378472222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
         <v>45795.41767361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>45260.5359837963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>45795.42396990741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45796.61146990741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45881.44344907408</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45919</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45680</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>46041.35824074074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45394.65423611111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45707.68733796296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44430.64592592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45527.42421296296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45841.43662037037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45841.39545138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45846</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45943</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45873.45134259259</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45645.23799768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46021.36634259259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>46049.57305555556</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         <v>44839</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45530.72401620371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44264</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44426.73547453704</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44613.44670138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44421.57394675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44594</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44453.38615740741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44463.3428125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44459</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44371</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44503.85619212963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>44585</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44546</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44529.63019675926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44380</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44380.30938657407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44838</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44432</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44391.61811342592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44827</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44603</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44246</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44315</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44265</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44586.42604166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44818</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44382</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44245</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44239</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44463</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44298</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44314</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44380.32061342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44508.88515046296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44613</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44727.59222222222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44356.85369212963</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44383.80697916666</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44844.84521990741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44541.85745370371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44370.75695601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44331.68225694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44364</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44447.68680555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44837</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44477.71097222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44246</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44246</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44460</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44455.50283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44280.27939814814</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44466.45636574074</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44427.60192129629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44659.61706018518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44701</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44579</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44341.60505787037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44474.2569212963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44389</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44721</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44670</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44524.6277662037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44344</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44487.32478009259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44750.54332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44678.61560185185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44858.33900462963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44887.65707175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44887.6541087963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44387.37766203703</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44358.40704861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44418.66804398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44348</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44379.33491898148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44635.29614583333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>44811.48283564814</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>44650</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44568</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44369</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44424.37128472222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>44447.61085648148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45369.62409722222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45454</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45290</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45770.86675925926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44382.60047453704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45009.42462962963</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45481.53797453704</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45617</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>44988.48039351852</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45590.92597222222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45694.52530092592</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>44454.62340277778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45670</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45021.62957175926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45754.70548611111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45213</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45720.67452546296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44972</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>45419.63797453704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45219</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45704</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45302.73747685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45238.67873842592</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>45154</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>45680.36491898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45031.42637731481</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>44867.47905092593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45277</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45306</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45166.47346064815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45380</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45275</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>45238.70225694445</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45552</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45162</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45503</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>44945</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45637.48994212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>45328.54533564814</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45460.38153935185</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45742</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>45148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>45259.57592592593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>45728.48049768519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44378</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45742</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45728</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>45748</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45356.42046296296</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45733.47133101852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45737.42380787037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45723.3394675926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45729.67428240741</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45729</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45109</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45109</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45803.60734953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45799.76940972222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45267</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45335</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>45335.73070601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>45189</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>45188.2929050926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11512,7 +11512,7 @@
         <v>45485.59034722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>45013</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
         <v>45317.64331018519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>45887.44935185185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>45887.46252314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>45604.32130787037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>45800.37456018518</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>45211.99126157408</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         <v>45804</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>45693.58241898148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12102,7 +12102,7 @@
         <v>45805</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12159,7 +12159,7 @@
         <v>45804.4540162037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12216,7 +12216,7 @@
         <v>44819.28025462963</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>45303.49871527778</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12330,7 +12330,7 @@
         <v>45732.45341435185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
         <v>45758</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>45786</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45014.57861111111</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>45800.67922453704</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45888.76606481482</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45888.76744212963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>45679.33732638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>45460.38287037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12843,7 +12843,7 @@
         <v>45734.39568287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>45889.47633101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>45889.47859953704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>45889.48162037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>45890.66550925926</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>45890.88939814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>45517</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>45890.46839120371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>45890.29753472222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>44928</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44928</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>45181.6131712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45892.29917824074</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>45848</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>44298</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>45818.58399305555</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>44901</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45475.38969907408</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45899.29246527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45899.26381944444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44484.38644675926</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45818.58465277778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45899.2575462963</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>45899.30020833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45900.7175462963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45182</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45818.57579861111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44277</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45899.24924768518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45412.52857638889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45899.29828703704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45901.54266203703</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45898</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45903</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45677</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45188</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44453.40046296296</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45671.94960648148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45905.52668981482</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45904.33833333333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45904.33302083334</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45905.52935185185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45821.3912037037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45904.45729166667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45873.44144675926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45904.44297453704</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45824.31563657407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45821</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45824</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45824.31346064815</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45908.83310185185</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45824.31116898148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45907.87585648148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45907.87936342593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45907.87704861111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45694</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45402.23428240741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45821.34864583334</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45737.68915509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45737.68998842593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44472.45174768518</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45776.54270833333</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45827.56010416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45831.36836805556</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45911.39112268519</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45496.69783564815</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45446</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45904.66633101852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45041</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>44945</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45154.79920138889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45916.5824074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45917</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45917</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45096</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45046</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45831.36633101852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>44699.73524305555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45919.29105324074</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45922.64782407408</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45832</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45922.64138888889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45922.65359953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45922.64466435185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45922.6462962963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45923.66177083334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45924</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45924</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45833.49554398148</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45212</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45924.58665509259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45924.58829861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>45794.25789351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45924</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45926.69854166666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45618.70239583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45930.56075231481</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45600.46143518519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45488</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45930.56141203704</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45931.48114583334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45838.5287962963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45625.46094907408</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45837.88903935185</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44928</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44928.61333333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45732.43990740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45841.49357638889</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45841.49430555556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45841.4927662037</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44904.68769675926</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45841.42</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44487.27475694445</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45841.39407407407</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45841.42442129629</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45841.44113425926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44356.45002314815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45322</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45841.44262731481</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45841.49510416666</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45841.43451388889</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45843.32988425926</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45942.47396990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45943</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45943.68398148148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45842.42921296296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45211.98679398148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45760</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45245</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45077</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45843.32826388889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45843.33149305556</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>44939</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45343.79310185185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45692.76652777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45847.32769675926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45944.81758101852</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>44609</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45215.69435185185</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44264</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45747</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45083.58858796296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45573.70368055555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45791.82400462963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45946.9609375</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>44946</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45460.23224537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45848</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>44873.59988425926</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45244</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45947.37923611111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45370.62805555556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44594</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45719</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45757</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45951</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>45721</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45083</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45358</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>45215.84091435185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45365.65668981482</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45365.69532407408</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>44946</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>45791.82179398148</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>44586.58008101852</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45335.7203125</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44956.70082175926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45631</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45953.6449537037</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45106</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45412.40754629629</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>45953.84179398148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>45595.87626157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>45870.48773148148</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45601.49810185185</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45162</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45873.71123842592</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45959.71396990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45732.85637731481</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45874.44326388889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44980.61770833333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45361.83712962963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44541.81983796296</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44848.48673611111</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44260</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>45713.53767361111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44867.47667824074</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44873.6115625</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45964.6665625</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44776.37015046296</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>45881.44418981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>45880</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45964.28807870371</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45881.43841435185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>45880.72608796296</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>45880.72768518519</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45328</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>45965.39746527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>45880.72895833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>45880</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>45277</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>45742.76833333333</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>45448</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>45398.37391203704</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>45969.8789699074</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45970.32664351852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>45709</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44826</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44826</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24942,7 +24942,7 @@
         <v>45702.38320601852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24999,7 +24999,7 @@
         <v>45973</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45784.67101851852</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25113,7 +25113,7 @@
         <v>45742.76657407408</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>45841.43238425926</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>45975.55768518519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>45212</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>45363.64902777778</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45008.58983796297</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45721</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45622.68585648148</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45391.76744212963</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45391.76984953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>46020.64570601852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45645.24053240741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>46021.3608912037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45299</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45118</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44928</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45279.35089120371</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45188.47842592592</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45980.65744212963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45980.36643518518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45980</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44804</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45622.69251157407</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45644</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>44432.31958333333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45985</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45454.29613425926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45112.50153935186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45771.44607638889</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45187.41074074074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>44956</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45986.45755787037</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44858</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45460.23820601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45987.46350694444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45063.37902777778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45259.51030092593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45209.48993055556</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45320.69017361111</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45372</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45372</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45567.64372685185</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>46030.68255787037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45343</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45169</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45566.3941550926</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45184</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45154</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45154</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45992</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45760</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45992.95173611111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45009.42696759259</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45994.2549074074</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>44356.83127314815</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45995.6600925926</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>44956</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>44664</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45630.84928240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45995</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45281.60759259259</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45091.8662962963</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45610</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45694.66690972223</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>46038.66329861111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>44974</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45720</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46041.35619212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>45210</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45999.5750462963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>46041.36143518519</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45999.59483796296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>46000.79803240741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>46043.4240162037</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>44858.70806712963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>46000.80445601852</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>45270</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>45602.38793981481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45751.64454861111</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>46000.79586805555</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>46001.60348379629</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44274.85268518519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>44442.22429398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45203.64381944444</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45680.34590277778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>46044</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>45694.52599537037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>45380.30173611111</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>45103.36048611111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45604.37716435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45257.60269675926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>45302.68533564815</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>45069.67884259259</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>46049.57417824074</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>46048.35840277778</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>46048.37540509259</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46048</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45693.30753472223</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>46008.30789351852</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45168.32784722222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>46044.34333333333</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>44313</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46051.84416666667</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46051.42804398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>46008.30554398148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>44460</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45404</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>46010.66601851852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>46055.6831712963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>45215.55824074074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>46055</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45259.51289351852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31584,7 +31584,7 @@
         <v>45140.485</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>46055.68438657407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>46052</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31755,7 +31755,7 @@
         <v>46056.53222222222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31812,7 +31812,7 @@
         <v>45610.79056712963</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         <v>45069</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31926,7 +31926,7 @@
         <v>45266.63684027778</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31983,7 +31983,7 @@
         <v>44874.65327546297</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32040,7 +32040,7 @@
         <v>45614.85831018518</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32097,7 +32097,7 @@
         <v>46057.72910879629</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>45919</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45246</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45595.87185185185</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45671.36034722222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44484.45483796296</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>45148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>46056.53511574074</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46057</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>46059.69574074074</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>46059.69427083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44664</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>45210</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44902</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>45562</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45198</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>44383</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33096,7 +33096,7 @@
         <v>45590.94525462963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>45595.88085648148</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>45562</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45236.29085648148</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45419.33035879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45756</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44813.75790509259</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>45601</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44816</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45169</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45685.68592592593</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44235</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45734.65965277778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>45372</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45372</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>45372</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44460.50841435185</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45132</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34127,7 +34127,7 @@
         <v>44816.43815972222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34184,7 +34184,7 @@
         <v>44972.633125</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34241,7 +34241,7 @@
         <v>44994</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>45373.63032407407</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>45394.574375</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44993.72670138889</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34469,7 +34469,7 @@
         <v>45219</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34526,7 +34526,7 @@
         <v>45695.5090625</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34583,7 +34583,7 @@
         <v>45617.5908449074</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34640,7 +34640,7 @@
         <v>44564</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34697,7 +34697,7 @@
         <v>44985</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34754,7 +34754,7 @@
         <v>44234</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34811,7 +34811,7 @@
         <v>45372</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34868,7 +34868,7 @@
         <v>45372</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34925,7 +34925,7 @@
         <v>45617.44506944445</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34982,7 +34982,7 @@
         <v>45190</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35039,7 +35039,7 @@
         <v>44617</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35096,7 +35096,7 @@
         <v>45163</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35153,7 +35153,7 @@
         <v>45671.3547337963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35210,7 +35210,7 @@
         <v>44418.6292824074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35267,7 +35267,7 @@
         <v>44344</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35324,7 +35324,7 @@
         <v>45708.71021990741</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35381,7 +35381,7 @@
         <v>45692</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44974</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>45109.47741898148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>45014.67738425926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44988.55130787037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45645.2422337963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44904.69564814815</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44894.53177083333</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>45695.51128472222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>45408.63834490741</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>45162</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44826</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44608</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36122,7 +36122,7 @@
         <v>44976.42289351852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36179,7 +36179,7 @@
         <v>45213</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36236,7 +36236,7 @@
         <v>45343.63950231481</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36293,7 +36293,7 @@
         <v>44881</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36350,7 +36350,7 @@
         <v>44454</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36407,7 +36407,7 @@
         <v>45377</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36464,7 +36464,7 @@
         <v>44659</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>45264.82974537037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45700.58738425926</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36635,7 +36635,7 @@
         <v>44916.56637731481</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36692,7 +36692,7 @@
         <v>44984.64765046296</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36749,7 +36749,7 @@
         <v>45579.48553240741</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36806,7 +36806,7 @@
         <v>45187.41255787037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36863,7 +36863,7 @@
         <v>45308</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36920,7 +36920,7 @@
         <v>44992.46184027778</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36982,7 +36982,7 @@
         <v>45238.69797453703</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37039,7 +37039,7 @@
         <v>45275</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37096,7 +37096,7 @@
         <v>45181.67774305555</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37153,7 +37153,7 @@
         <v>45760</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37210,7 +37210,7 @@
         <v>45760</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37267,7 +37267,7 @@
         <v>45760</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37324,7 +37324,7 @@
         <v>45732.44554398148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37381,7 +37381,7 @@
         <v>45275</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37438,7 +37438,7 @@
         <v>45751.64311342593</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45099</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37552,7 +37552,7 @@
         <v>45056.50663194444</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37609,7 +37609,7 @@
         <v>45616.31275462963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         <v>44665</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37723,7 +37723,7 @@
         <v>44463.60155092592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37780,7 +37780,7 @@
         <v>44848.67672453704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>44848.67853009259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45309</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37951,7 +37951,7 @@
         <v>45733</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45113.59415509259</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>44874</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45273.37284722222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38179,7 +38179,7 @@
         <v>45204.4794212963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38236,7 +38236,7 @@
         <v>45734.44627314815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45163</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>44603</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45307.28674768518</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45611</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38521,7 +38521,7 @@
         <v>45316</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38583,7 +38583,7 @@
         <v>44902</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38640,7 +38640,7 @@
         <v>44902</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38697,7 +38697,7 @@
         <v>45760</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38754,7 +38754,7 @@
         <v>45013</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38811,7 +38811,7 @@
         <v>45109.71393518519</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45602.39266203704</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         <v>45685.7355787037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>45448</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>45702.37709490741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39096,7 +39096,7 @@
         <v>45702.38725694444</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39153,7 +39153,7 @@
         <v>45376</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39210,7 +39210,7 @@
         <v>44330</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45328.40877314815</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39324,7 +39324,7 @@
         <v>44965.67059027778</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39381,7 +39381,7 @@
         <v>45713.55327546296</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39438,7 +39438,7 @@
         <v>45551.65130787037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39495,7 +39495,7 @@
         <v>45275.70342592592</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39552,7 +39552,7 @@
         <v>45277.82450231481</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39609,7 +39609,7 @@
         <v>45611</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39666,7 +39666,7 @@
         <v>45776.53418981482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39723,7 +39723,7 @@
         <v>45776.85799768518</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39780,7 +39780,7 @@
         <v>45785.59581018519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39837,7 +39837,7 @@
         <v>45615.73449074074</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
         <v>45784.65938657407</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39951,7 +39951,7 @@
         <v>45784.67052083334</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40008,7 +40008,7 @@
         <v>45599.49371527778</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40065,7 +40065,7 @@
         <v>44605.34027777778</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40122,7 +40122,7 @@
         <v>45320</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40179,7 +40179,7 @@
         <v>45586.38421296296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40236,7 +40236,7 @@
         <v>45791.8044212963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40293,7 +40293,7 @@
         <v>45791.81430555556</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40350,7 +40350,7 @@
         <v>45791.85385416666</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40407,7 +40407,7 @@
         <v>45791.79814814815</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40464,7 +40464,7 @@
         <v>45791.80203703704</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>45791.80574074074</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>45791.79378472222</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40635,7 +40635,7 @@
         <v>45795.41767361111</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40692,7 +40692,7 @@
         <v>45260.5359837963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40749,7 +40749,7 @@
         <v>45795.42396990741</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40806,7 +40806,7 @@
         <v>45796.61146990741</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45881.44344907408</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45919</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45680</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>46041.35824074074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45394.65423611111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45707.68733796296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44430.64592592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45527.42421296296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45841.43662037037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45841.39545138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45846</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45873.45134259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45943</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45645.23799768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46049.57305555556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>46021.36634259259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45530.72401620371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44426.73547453704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44264</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44613.44670138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44421.57394675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44594</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44453.38615740741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44463.3428125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44459</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44529.63019675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44503.85619212963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44380</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44380.30938657407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44391.61811342592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44827</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44603</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44315</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44265</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44818</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44586.42604166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44298</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44380.32061342592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44508.88515046296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44375</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44727.59222222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44383.80697916666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44356.85369212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44331.68225694444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44844.84521990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44541.85745370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44370.75695601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44477.71097222222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44447.68680555555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44837</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44455.50283564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44280.27939814814</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44427.60192129629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44659.61706018518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44466.45636574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44701</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44341.60505787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44474.2569212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44389</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44670</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44524.6277662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44487.32478009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44678.61560185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44750.54332175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44858.33900462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44887.65707175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44887.6541087963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44387.37766203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44358.40704861111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44418.66804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44379.33491898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44635.29614583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44811.48283564814</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44568</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44650</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44369</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44447.61085648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44424.37128472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>45290</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44382.60047453704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45369.62409722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45009.42462962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45481.53797453704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45770.86675925926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45617</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45590.92597222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44988.48039351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45021.62957175926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44454.62340277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45694.52530092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45754.70548611111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45213</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45720.67452546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45219</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45419.63797453704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44972</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45238.67873842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>45302.73747685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>45154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45166.47346064815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45031.42637731481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45680.36491898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>44867.47905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>45306</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45380</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45275</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45162</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45552</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45503</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45238.70225694445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45460.38153935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44945</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45328.54533564814</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45637.48994212963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45742</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45259.57592592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45335</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45335.73070601852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45109</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45189</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45188.2929050926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45485.59034722222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45317.64331018519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45604.32130787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45211.99126157408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45693.58241898148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45014.57861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44819.28025462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45303.49871527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45460.38287037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45732.45341435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45734.39568287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45517</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45818.58399305555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44901</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44928</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44928</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45181.6131712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45818.58465277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44298</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45887.44935185185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45887.46252314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45818.57579861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45475.38969907408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44484.38644675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44277</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45412.52857638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45821.3912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45758</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45824.31563657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45786</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>45821</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>45824</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45824.31346064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45824.31116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45800.67922453704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45888.76606481482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45888.76744212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45679.33732638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>45677</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45889.47633101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45889.47859953704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45889.48162037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>45694</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45821.34864583334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45188</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44453.40046296296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45827.56010416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45671.94960648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45890.66550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45890.88939814815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45890.46839120371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45890.29753472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45831.36633101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45892.29917824074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45402.23428240741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45496.69783564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45832</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45446</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45899.29246527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45833.49554398148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45041</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45899.26381944444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45154.79920138889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45794.25789351852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45899.2575462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45899.30020833333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45900.7175462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45899.24924768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45899.29828703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45901.54266203703</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45898</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45903</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45046</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44699.73524305555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45838.5287962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45905.52668981482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45904.33833333333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45904.33302083334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45837.88903935185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45905.52935185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45904.45729166667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45873.44144675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45904.44297453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45908.83310185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45841.49357638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45841.49430555556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45841.4927662037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45841.42</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45841.39407407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45907.87585648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45907.87936342593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45841.42442129629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45841.44113425926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45907.87704861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45212</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45841.44262731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45737.68915509259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45841.49510416666</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45737.68998842593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45841.43451388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44472.45174768518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45843.32988425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45776.54270833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45831.36836805556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45911.39112268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45842.42921296296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45843.32826388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45843.33149305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45692.76652777778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45847.32769675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45904.66633101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45747</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45791.82400462963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45618.70239583333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45848</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45600.46143518519</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45488</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45916.5824074074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45917</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45917</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45625.46094907408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45919.29105324074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45719</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45922.64782407408</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44928.61333333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>45922.64138888889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45922.65359953704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45732.43990740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44904.68769675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44487.27475694445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45922.64466435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45922.6462962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45923.66177083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45924</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45924</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44356.45002314815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45322</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45924.58665509259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45791.82179398148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45924.58829861111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45924</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45926.69854166666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45870.48773148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45211.98679398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45873.71123842592</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45760</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45930.56075231481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45732.85637731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45245</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45930.56141203704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45077</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45931.48114583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44939</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45343.79310185185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45874.44326388889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44609</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45215.69435185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45713.53767361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45083.58858796296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45573.70368055555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44946</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45460.23224537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44873.59988425926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45244</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45881.44418981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45880</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45881.43841435185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45880.72608796296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45880.72768518519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45880.72895833333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45370.62805555556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45880</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44594</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45757</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45937</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45083</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45358</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45215.84091435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45365.65668981482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45365.69532407408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44946</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45784.67101851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44586.58008101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45742.76657407408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45841.43238425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45335.7203125</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44956.70082175926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45631</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45412.40754629629</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45595.87626157407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>45942.47396990741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45943</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45943.68398148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>45601.49810185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45162</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45944.81758101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45946.9609375</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44980.61770833333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45361.83712962963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44541.81983796296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44848.48673611111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45947.37923611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44260</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45937</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45951</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>45951</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44867.47667824074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44873.6115625</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>44776.37015046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45328</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45953.6449537037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45277</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45953.84179398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45742.76833333333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>45448</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45398.37391203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45709</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45959.71396990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45702.38320601852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45212</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45363.64902777778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45008.58983796297</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45721</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45964.6665625</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45622.68585648148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45391.76744212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45391.76984953704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45964.28807870371</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45645.24053240741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45965.39746527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45299</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45118</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45279.35089120371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45188.47842592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>44804</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45625</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45969.8789699074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45970.32664351852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45622.69251157407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44432.31958333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45454.29613425926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45112.50153935186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45771.44607638889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45187.41074074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45975.55768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44956</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44858</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45460.23820601852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45063.37902777778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45259.51030092593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45980.65744212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45209.48993055556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45980.36643518518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45320.69017361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45980</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45372</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45372</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45567.64372685185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45985</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45343</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45169</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45566.3941550926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45184</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45986.45755787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45154</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45760</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45987.46350694444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45009.42696759259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>44356.83127314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>44956</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>44664</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45630.84928240741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45992</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45281.60759259259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45992.95173611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45091.8662962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45610</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45994.2549074074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45694.66690972223</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45995.6600925926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45720</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45210</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45995</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>46038.66329861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44858.70806712963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>45270</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>46041.35619212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45999.5750462963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>46041.36143518519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45999.59483796296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45602.38793981481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45751.64454861111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>46000.79803240741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>46043.4240162037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>46000.80445601852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44274.85268518519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44442.22429398148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45203.64381944444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45680.34590277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>46000.79586805555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45694.52599537037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>46001.60348379629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>45380.30173611111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45103.36048611111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45604.37716435185</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>45257.60269675926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45302.68533564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>46044</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45069.67884259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45693.30753472223</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45168.32784722222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>46049.57417824074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44313</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>46048.35840277778</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>46048.37540509259</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>46048</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>46008.30789351852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>46044.34333333333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>44460</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45404</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45215.55824074074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>46051.84416666667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>46051.42804398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45259.51289351852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45140.485</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>46008.30554398148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>46010.66601851852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>46055.6831712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>46055</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45610.79056712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45069</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46055.68438657407</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>46052</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45266.63684027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44874.65327546297</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45614.85831018518</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46056.53222222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45246</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45595.87185185185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45671.36034722222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44484.45483796296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46056.53511574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46057</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>46059.69574074074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>46059.69427083333</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>46020.64570601852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44664</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45210</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>46021.3608912037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44902</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45198</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>46061.85453703703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44383</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45590.94525462963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45595.88085648148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45562</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45236.29085648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45419.33035879629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44813.75790509259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45601</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44816</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45169</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45685.68592592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45734.65965277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45372</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45372</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45372</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>46071.82902777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>46071.83018518519</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45919</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44460.50841435185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45132</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44816.43815972222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>44972.633125</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45562</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>44994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45373.63032407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45394.574375</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>44993.72670138889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>46070</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>46057.72910879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45219</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>46030.68255787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45695.5090625</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45617.5908449074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>44564</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>45372</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45372</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45617.44506944445</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45190</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44617</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45163</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45671.3547337963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44418.6292824074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44344</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45708.71021990741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45692</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44974</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45109.47741898148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45014.67738425926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44988.55130787037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45645.2422337963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44904.69564814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44894.53177083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45695.51128472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45408.63834490741</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45162</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>44826</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44608</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44976.42289351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45213</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45343.63950231481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>44881</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>44454</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>45377</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>44659</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45264.82974537037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>45700.58738425926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>44916.56637731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>44984.64765046296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45579.48553240741</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45187.41255787037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>45308</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44992.46184027778</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45238.69797453703</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45275</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45181.67774305555</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45760</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45760</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45760</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45732.44554398148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45275</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45751.64311342593</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45099</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45056.50663194444</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45616.31275462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44665</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44463.60155092592</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44848.67672453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44848.67853009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45309</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>45733</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>45113.59415509259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>45273.37284722222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>45204.4794212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>45734.44627314815</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>45163</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44603</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45307.28674768518</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45611</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45316</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44902</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44902</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45760</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45013</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>45109.71393518519</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45602.39266203704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45685.7355787037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45448</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45702.37709490741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45702.38725694444</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45376</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44330</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45328.40877314815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>44965.67059027778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>45713.55327546296</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>45551.65130787037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>45275.70342592592</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>45277.82450231481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>45611</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>45776.53418981482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45776.85799768518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45785.59581018519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>45615.73449074074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>45784.65938657407</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>45784.67052083334</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45599.49371527778</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44605.34027777778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>45320</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45586.38421296296</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39158,7 +39158,7 @@
         <v>45791.8044212963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39215,7 +39215,7 @@
         <v>45791.81430555556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39272,7 +39272,7 @@
         <v>45791.85385416666</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39329,7 +39329,7 @@
         <v>45791.79814814815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39386,7 +39386,7 @@
         <v>45791.80203703704</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39443,7 +39443,7 @@
         <v>45791.80574074074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39500,7 +39500,7 @@
         <v>45791.79378472222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39557,7 +39557,7 @@
         <v>45795.41767361111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39614,7 +39614,7 @@
         <v>45260.5359837963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39671,7 +39671,7 @@
         <v>45795.42396990741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39728,7 +39728,7 @@
         <v>45796.61146990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>45728.48049768519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45742</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45728</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>45356.42046296296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45733.47133101852</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
         <v>45737.42380787037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40132,7 +40132,7 @@
         <v>45723.3394675926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>45729.67428240741</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45729</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40303,7 +40303,7 @@
         <v>45803.60734953704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40360,7 +40360,7 @@
         <v>45799.76940972222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         <v>45267</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40474,7 +40474,7 @@
         <v>45800.37456018518</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40531,7 +40531,7 @@
         <v>45804</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40588,7 +40588,7 @@
         <v>45805</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>45804.4540162037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45881.44344907408</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45919</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>45680</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>46041.35824074074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>45394.65423611111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45707.68733796296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44430.64592592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>45527.42421296296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>45841.43662037037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>45841.39545138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>45846</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>45873.45134259259</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>45943</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45645.23799768519</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>46049.57305555556</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>44839</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>46021.36634259259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>45530.72401620371</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44426.73547453704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44264</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44613.44670138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44421.57394675926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44594</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44453.38615740741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44463.3428125</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44459</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44529.63019675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>44503.85619212963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44380</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44380.30938657407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44391.61811342592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44827</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44573</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44603</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44315</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44265</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44818</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44586.42604166667</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44298</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44380.32061342592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44508.88515046296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44375</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44727.59222222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44383.80697916666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44356.85369212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44331.68225694444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44844.84521990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44541.85745370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44370.75695601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44477.71097222222</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44447.68680555555</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44837</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44455.50283564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44280.27939814814</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44427.60192129629</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44659.61706018518</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44466.45636574074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44701</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44341.60505787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44474.2569212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44389</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44670</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44524.6277662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44487.32478009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44678.61560185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44750.54332175926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44858.33900462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44887.65707175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44887.6541087963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44387.37766203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44358.40704861111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44418.66804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44379.33491898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44635.29614583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44811.48283564814</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44568</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44650</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44369</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44447.61085648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44424.37128472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>45290</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>44382.60047453704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>45369.62409722222</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45009.42462962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45454</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45481.53797453704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45770.86675925926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45617</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45590.92597222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44988.48039351852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>45021.62957175926</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44454.62340277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45694.52530092592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45754.70548611111</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45670</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
         <v>45213</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8429,7 +8429,7 @@
         <v>45720.67452546296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>45704</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45219</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>45419.63797453704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44972</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45238.67873842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>45302.73747685185</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>45154</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45166.47346064815</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45031.42637731481</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>45680.36491898148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9113,7 +9113,7 @@
         <v>44867.47905092593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9170,7 +9170,7 @@
         <v>45306</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
         <v>45380</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>45111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45275</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>45162</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>45552</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>45503</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>45238.70225694445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>45460.38153935185</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>44945</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>45328.54533564814</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>45637.48994212963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>45742</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>45148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>45259.57592592593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>45748</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10144,7 +10144,7 @@
         <v>45335</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45335.73070601852</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10258,7 +10258,7 @@
         <v>45109</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         <v>45109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10372,7 +10372,7 @@
         <v>45189</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45188.2929050926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         <v>45485.59034722222</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45013</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45317.64331018519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45604.32130787037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45211.99126157408</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>45693.58241898148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45014.57861111111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44819.28025462963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>45303.49871527778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>45460.38287037037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>45732.45341435185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>45734.39568287037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>45517</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>45818.58399305555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44901</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44928</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44928</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11455,7 +11455,7 @@
         <v>45181.6131712963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>45818.58465277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44298</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>45887.44935185185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>45887.46252314815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45818.57579861111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45475.38969907408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44484.38644675926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45182</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44277</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>45412.52857638889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>45821.3912037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>45758</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>45824.31563657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>45786</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>45821</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>45824</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>45824.31346064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>45824.31116898148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>45800.67922453704</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>45888.76606481482</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>45888.76744212963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>45679.33732638889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>45677</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12910,7 +12910,7 @@
         <v>45889.47633101852</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12967,7 +12967,7 @@
         <v>45889.47859953704</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         <v>45889.48162037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13081,7 +13081,7 @@
         <v>45694</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45821.34864583334</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>45188</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44453.40046296296</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45827.56010416667</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13366,7 +13366,7 @@
         <v>45671.94960648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13423,7 +13423,7 @@
         <v>45890.66550925926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45890.88939814815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45890.46839120371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45890.29753472222</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45831.36633101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45892.29917824074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>45402.23428240741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45496.69783564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45832</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45446</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45899.29246527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45833.49554398148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45041</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45899.26381944444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>44945</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45154.79920138889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45794.25789351852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45899.2575462963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>45899.30020833333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45900.7175462963</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45899.24924768518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45899.29828703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45901.54266203703</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45898</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>45096</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45903</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45046</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>44699.73524305555</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45838.5287962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45905.52668981482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45904.33833333333</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>45904.33302083334</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>45837.88903935185</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45905.52935185185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45904.45729166667</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45873.44144675926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45904.44297453704</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45908.83310185185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>45841.49357638889</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45841.49430555556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45841.4927662037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45841.42</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45841.39407407407</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45907.87585648148</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45907.87936342593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45841.42442129629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45841.44113425926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45907.87704861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45212</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45841.44262731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45737.68915509259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45841.49510416666</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45737.68998842593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45841.43451388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>44472.45174768518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45843.32988425926</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45776.54270833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45831.36836805556</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45911.39112268519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45842.42921296296</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45843.32826388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45843.33149305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45692.76652777778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>45847.32769675926</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45904.66633101852</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44264</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45747</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45791.82400462963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45618.70239583333</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45848</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45600.46143518519</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45488</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45916.5824074074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45917</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45917</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45625.46094907408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>45919.29105324074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45719</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45922.64782407408</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44928</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44928.61333333333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>45922.64138888889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45922.65359953704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45732.43990740741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44904.68769675926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44487.27475694445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45721</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45922.64466435185</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45922.6462962963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45923.66177083334</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45924</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45924</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44356.45002314815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45322</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45924.58665509259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45791.82179398148</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45924.58829861111</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45924</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45926.69854166666</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45870.48773148148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45211.98679398148</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45873.71123842592</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45760</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45930.56075231481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45732.85637731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45245</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19527,7 +19527,7 @@
         <v>45930.56141203704</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19584,7 +19584,7 @@
         <v>45077</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>45931.48114583334</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44939</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45343.79310185185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45874.44326388889</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44609</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>45215.69435185185</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>45713.53767361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20040,7 +20040,7 @@
         <v>45083.58858796296</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20097,7 +20097,7 @@
         <v>45573.70368055555</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20154,7 +20154,7 @@
         <v>44946</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20211,7 +20211,7 @@
         <v>45460.23224537037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>44873.59988425926</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45244</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45881.44418981481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45880</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45881.43841435185</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45880.72608796296</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45880.72768518519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45880.72895833333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45370.62805555556</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45880</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>44594</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45757</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45937</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45083</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45358</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45215.84091435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45365.65668981482</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45365.69532407408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>44946</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45784.67101851852</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>44586.58008101852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45742.76657407408</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45841.43238425926</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>45335.7203125</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21636,7 +21636,7 @@
         <v>44956.70082175926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45631</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>45106</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21807,7 +21807,7 @@
         <v>45412.40754629629</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21864,7 +21864,7 @@
         <v>45595.87626157407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>45942.47396990741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>45943</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>45943.68398148148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>45601.49810185185</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>45162</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>45944.81758101852</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45946.9609375</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>44980.61770833333</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>45361.83712962963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>44541.81983796296</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>44848.48673611111</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45947.37923611111</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>44260</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>45937</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>45951</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>45951</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>44867.47667824074</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>44873.6115625</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>44776.37015046296</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>45328</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45953.6449537037</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45277</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45953.84179398148</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>45742.76833333333</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>45448</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>45398.37391203704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>45709</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45959.71396990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44826</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44826</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>45702.38320601852</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45212</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45363.64902777778</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45008.58983796297</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23864,7 +23864,7 @@
         <v>45721</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>45964.6665625</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>45622.68585648148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>45391.76744212963</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45391.76984953704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>45964.28807870371</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>45645.24053240741</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45965.39746527778</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45299</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45118</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>44928</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45279.35089120371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45188.47842592592</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>44804</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>45625</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45969.8789699074</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45970.32664351852</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45622.69251157407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44432.31958333333</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45454.29613425926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>45112.50153935186</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45973</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45771.44607638889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45187.41074074074</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>45975.55768518519</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44956</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44858</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45460.23820601852</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45063.37902777778</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45259.51030092593</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45980.65744212963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45209.48993055556</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>45980.36643518518</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45320.69017361111</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45980</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45372</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45372</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45567.64372685185</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45985</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45343</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45169</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45566.3941550926</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45184</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45986.45755787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45154</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45154</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45760</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45987.46350694444</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45009.42696759259</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>44356.83127314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>44956</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>44664</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45630.84928240741</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45992</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45281.60759259259</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45992.95173611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45091.8662962963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45610</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45994.2549074074</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45694.66690972223</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>45995.6600925926</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>44974</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45720</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45210</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45995</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>46038.66329861111</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>44858.70806712963</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         <v>45270</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27822,7 +27822,7 @@
         <v>46041.35619212963</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27879,7 +27879,7 @@
         <v>45999.5750462963</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27936,7 +27936,7 @@
         <v>46041.36143518519</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45999.59483796296</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45602.38793981481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28107,7 +28107,7 @@
         <v>45751.64454861111</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28164,7 +28164,7 @@
         <v>46000.79803240741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28221,7 +28221,7 @@
         <v>46043.4240162037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28278,7 +28278,7 @@
         <v>46000.80445601852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28335,7 +28335,7 @@
         <v>44274.85268518519</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28392,7 +28392,7 @@
         <v>44442.22429398148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28449,7 +28449,7 @@
         <v>45203.64381944444</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28506,7 +28506,7 @@
         <v>45680.34590277778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28563,7 +28563,7 @@
         <v>46000.79586805555</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28620,7 +28620,7 @@
         <v>45694.52599537037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28677,7 +28677,7 @@
         <v>46001.60348379629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28734,7 +28734,7 @@
         <v>45380.30173611111</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28791,7 +28791,7 @@
         <v>45103.36048611111</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28848,7 +28848,7 @@
         <v>45604.37716435185</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28905,7 +28905,7 @@
         <v>45257.60269675926</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>45302.68533564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29019,7 +29019,7 @@
         <v>46044</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29076,7 +29076,7 @@
         <v>45069.67884259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         <v>45693.30753472223</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29190,7 +29190,7 @@
         <v>45168.32784722222</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29247,7 +29247,7 @@
         <v>46049.57417824074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29304,7 +29304,7 @@
         <v>44313</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29361,7 +29361,7 @@
         <v>46048.35840277778</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29418,7 +29418,7 @@
         <v>46048.37540509259</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29475,7 +29475,7 @@
         <v>46048</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29532,7 +29532,7 @@
         <v>46008.30789351852</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29589,7 +29589,7 @@
         <v>46044.34333333333</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>44460</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45404</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45215.55824074074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>46051.84416666667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29874,7 +29874,7 @@
         <v>46051.42804398148</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29931,7 +29931,7 @@
         <v>45259.51289351852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29988,7 +29988,7 @@
         <v>45140.485</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>46008.30554398148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30102,7 +30102,7 @@
         <v>46010.66601851852</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>46055.6831712963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30216,7 +30216,7 @@
         <v>46055</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30273,7 +30273,7 @@
         <v>45610.79056712963</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30330,7 +30330,7 @@
         <v>45069</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30387,7 +30387,7 @@
         <v>46055.68438657407</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
         <v>46052</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         <v>45266.63684027778</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>44874.65327546297</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30615,7 +30615,7 @@
         <v>45614.85831018518</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30672,7 +30672,7 @@
         <v>46056.53222222222</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30729,7 +30729,7 @@
         <v>45246</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45595.87185185185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45671.36034722222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>44484.45483796296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30957,7 +30957,7 @@
         <v>45148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>46056.53511574074</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>46057</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>46059.69574074074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31190,7 +31190,7 @@
         <v>46059.69427083333</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>46020.64570601852</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>44664</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45210</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31418,7 +31418,7 @@
         <v>46021.3608912037</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31475,7 +31475,7 @@
         <v>44902</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31532,7 +31532,7 @@
         <v>45198</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>46061.85453703703</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>44383</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45590.94525462963</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45595.88085648148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45562</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31879,7 +31879,7 @@
         <v>45236.29085648148</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31936,7 +31936,7 @@
         <v>45419.33035879629</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45756</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>44813.75790509259</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45601</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>44816</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45169</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>45685.68592592593</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>45734.65965277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45372</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45372</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45372</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>46071.82902777778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>46071.83018518519</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45919</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44460.50841435185</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45132</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44816.43815972222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>44972.633125</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45562</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>44994</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45373.63032407407</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45394.574375</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>44993.72670138889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>46070</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>46057.72910879629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>45219</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>46030.68255787037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>45695.5090625</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>45617.5908449074</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>44564</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>44985</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>45372</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45372</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>45617.44506944445</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45190</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44617</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45163</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45671.3547337963</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44418.6292824074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44344</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>45708.71021990741</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45692</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44974</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>45109.47741898148</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45014.67738425926</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>44988.55130787037</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45645.2422337963</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>44904.69564814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>44894.53177083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>45695.51128472222</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45408.63834490741</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>45162</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>44826</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>44608</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35044,7 +35044,7 @@
         <v>44976.42289351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35101,7 +35101,7 @@
         <v>45213</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35158,7 +35158,7 @@
         <v>45343.63950231481</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35215,7 +35215,7 @@
         <v>44881</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35272,7 +35272,7 @@
         <v>44454</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35329,7 +35329,7 @@
         <v>45377</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
         <v>44659</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35443,7 +35443,7 @@
         <v>45264.82974537037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35500,7 +35500,7 @@
         <v>45700.58738425926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35557,7 +35557,7 @@
         <v>44916.56637731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35614,7 +35614,7 @@
         <v>44984.64765046296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35671,7 +35671,7 @@
         <v>45579.48553240741</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35728,7 +35728,7 @@
         <v>45187.41255787037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>45308</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>44992.46184027778</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45238.69797453703</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45275</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45181.67774305555</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45760</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45760</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45760</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45732.44554398148</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>45275</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45751.64311342593</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45099</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45056.50663194444</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36531,7 +36531,7 @@
         <v>45616.31275462963</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36588,7 +36588,7 @@
         <v>44665</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36645,7 +36645,7 @@
         <v>44463.60155092592</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>44848.67672453704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44848.67853009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36816,7 +36816,7 @@
         <v>45309</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36873,7 +36873,7 @@
         <v>45733</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36930,7 +36930,7 @@
         <v>45113.59415509259</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36987,7 +36987,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37044,7 +37044,7 @@
         <v>45273.37284722222</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37101,7 +37101,7 @@
         <v>45204.4794212963</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37158,7 +37158,7 @@
         <v>45734.44627314815</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37215,7 +37215,7 @@
         <v>45163</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37272,7 +37272,7 @@
         <v>44603</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37329,7 +37329,7 @@
         <v>45307.28674768518</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37386,7 +37386,7 @@
         <v>45611</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37443,7 +37443,7 @@
         <v>45316</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>44902</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>44902</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45760</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45013</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>45109.71393518519</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45602.39266203704</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45685.7355787037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45448</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45702.37709490741</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45702.38725694444</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45376</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>44330</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45328.40877314815</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>44965.67059027778</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>45713.55327546296</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>45551.65130787037</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38417,7 +38417,7 @@
         <v>45275.70342592592</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38474,7 +38474,7 @@
         <v>45277.82450231481</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38531,7 +38531,7 @@
         <v>45611</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>45776.53418981482</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38645,7 +38645,7 @@
         <v>45776.85799768518</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45785.59581018519</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38759,7 +38759,7 @@
         <v>45615.73449074074</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38816,7 +38816,7 @@
         <v>45784.65938657407</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38873,7 +38873,7 @@
         <v>45784.67052083334</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38930,7 +38930,7 @@
         <v>45599.49371527778</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38987,7 +38987,7 @@
         <v>44605.34027777778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39044,7 +39044,7 @@
         <v>45320</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45586.38421296296</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39158,7 +39158,7 @@
         <v>45791.8044212963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39215,7 +39215,7 @@
         <v>45791.81430555556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39272,7 +39272,7 @@
         <v>45791.85385416666</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39329,7 +39329,7 @@
         <v>45791.79814814815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39386,7 +39386,7 @@
         <v>45791.80203703704</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39443,7 +39443,7 @@
         <v>45791.80574074074</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39500,7 +39500,7 @@
         <v>45791.79378472222</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39557,7 +39557,7 @@
         <v>45795.41767361111</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39614,7 +39614,7 @@
         <v>45260.5359837963</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39671,7 +39671,7 @@
         <v>45795.42396990741</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39728,7 +39728,7 @@
         <v>45796.61146990741</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>45728.48049768519</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45742</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39904,7 +39904,7 @@
         <v>45728</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39961,7 +39961,7 @@
         <v>45356.42046296296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40018,7 +40018,7 @@
         <v>45733.47133101852</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40075,7 +40075,7 @@
         <v>45737.42380787037</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40132,7 +40132,7 @@
         <v>45723.3394675926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40189,7 +40189,7 @@
         <v>45729.67428240741</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40246,7 +40246,7 @@
         <v>45729</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40303,7 +40303,7 @@
         <v>45803.60734953704</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40360,7 +40360,7 @@
         <v>45799.76940972222</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         <v>45267</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40474,7 +40474,7 @@
         <v>45800.37456018518</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40531,7 +40531,7 @@
         <v>45804</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40588,7 +40588,7 @@
         <v>45805</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>45804.4540162037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>

--- a/Översikt NÄSSJÖ.xlsx
+++ b/Översikt NÄSSJÖ.xlsx
@@ -575,7 +575,7 @@
         <v>45680</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>45881.44344907408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>45919</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>45517</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45394.65423611111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>46041.35824074074</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45707.68733796296</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>44430.64592592593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44537</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>44371</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>44839</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         <v>44928</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         <v>45527.42421296296</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>45841.39545138889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         <v>45841.43662037037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>45846</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         <v>45645.23799768519</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45873.45134259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2162,7 +2162,7 @@
         <v>45530.72401620371</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         <v>45943</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>46049.57305555556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>46021.36634259259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         <v>44886</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44426.73547453704</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>44264</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>44613.44670138889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44453.38615740741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44594</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44463.3428125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44459</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>44421.57394675926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44546</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>44529.63019675926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>44503.85619212963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44371</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44585</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>44432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>44380</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3460,7 +3460,7 @@
         <v>44380.30938657407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>44838</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         <v>44588</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44483</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44391.61811342592</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44573</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         <v>44579</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         <v>44603</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44315</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44265</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44586.42604166667</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>44818</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>44382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         <v>44314</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>44463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44298</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>44418</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>44380.32061342592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         <v>44508.88515046296</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4719,7 +4719,7 @@
         <v>44375</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         <v>44727.59222222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>44383.80697916666</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44356.85369212963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44445</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         <v>44331.68225694444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>44844.84521990741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         <v>44541.85745370371</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         <v>44370.75695601852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>44364</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         <v>44447.68680555555</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>44477.71097222222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44837</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>44455.50283564815</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         <v>44280.27939814814</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         <v>44466.45636574074</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>44407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
         <v>44519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         <v>44427.60192129629</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>44659.61706018518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44701</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>44579</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         <v>44341.60505787037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>44474.2569212963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>44389</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>44721</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>44670</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>44524.6277662037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>44344</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>44487.32478009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>44750.54332175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44678.61560185185</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
         <v>44858.33900462963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6714,7 +6714,7 @@
         <v>44887.65707175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6771,7 +6771,7 @@
         <v>44887.6541087963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
         <v>44387.37766203703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         <v>44358.40704861111</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>44418.66804398148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44348</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44379.33491898148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44635.29614583333</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44811.48283564814</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44650</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7284,7 +7284,7 @@
         <v>44568</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         <v>44369</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>44447.61085648148</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44424.37128472222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>44816.43815972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7574,7 +7574,7 @@
         <v>45343.79310185185</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44826</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7688,7 +7688,7 @@
         <v>45617.5908449074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45322</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44813.75790509259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45358</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45377</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>45203.64381944444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>45404</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44313</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>44356.45002314815</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45567.64372685185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45363.64902777778</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>44298</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45720.67452546296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>44874</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>44330</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44858.70806712963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>44378</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>44867.47905092593</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>44848.67672453704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44848.67853009259</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>44928</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>44928</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45210</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>45394.574375</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
         <v>45460.38287037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44277</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>45219</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>45454</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>45109.47741898148</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>45517</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>45365.65668981482</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>45266.63684027778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>45307.28674768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>45244</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>45273.37284722222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44442.22429398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>45419.63797453704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>45154</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>45154</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44946</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>45485.59034722222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44867.47667824074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>45604.32130787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>45246</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>44454</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>44848.48673611111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
         <v>44994</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10377,7 +10377,7 @@
         <v>45805</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>45887.46252314815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45784.67101851852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45742.76657407408</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45887.44935185185</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45827.34717592593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45786</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>44902</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45800.67922453704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45841.43238425926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45679.33732638889</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45758</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45890.46839120371</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45014.57861111111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45031.42637731481</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45890.66550925926</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45419.33035879629</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44928</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45888.76606481482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45888.76744212963</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45818.58465277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45212</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45212</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45890.29753472222</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45889.47633101852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45889.47859953704</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45889.48162037037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>45369.62409722222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45573.70368055555</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44383</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45818.58399305555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>44901</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45818.57579861111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45372</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>44972.633125</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45215.69435185185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>44617</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45890.88939814815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45892.29917824074</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45821.34864583334</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>45824.31346064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45824</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>45821.3912037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45821</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45824.31116898148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45824.31563657407</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45213</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>44945</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45694</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45898</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>45760</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45848</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45693.30753472223</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45181.6131712963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13480,7 +13480,7 @@
         <v>45209.48993055556</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>45900.7175462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>45899.29828703704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>45827.56010416667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13708,7 +13708,7 @@
         <v>45899.30020833333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13765,7 +13765,7 @@
         <v>44972</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>45899.2575462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13879,7 +13879,7 @@
         <v>45901.54266203703</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>45831.36633101852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13993,7 +13993,7 @@
         <v>45899.24924768518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14050,7 +14050,7 @@
         <v>45899.26381944444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>45899.29246527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
         <v>45832</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14221,7 +14221,7 @@
         <v>45903</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14278,7 +14278,7 @@
         <v>45904.44297453704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>45904.45729166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>45904.33302083334</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14449,7 +14449,7 @@
         <v>45904.33833333333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14506,7 +14506,7 @@
         <v>44894.53177083333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         <v>45907.87704861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14620,7 +14620,7 @@
         <v>45905.52668981482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14677,7 +14677,7 @@
         <v>45398.37391203704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>45601</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14791,7 +14791,7 @@
         <v>45873.44144675926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14848,7 +14848,7 @@
         <v>44945</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>45907.87585648148</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>45907.87936342593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15019,7 +15019,7 @@
         <v>45794.25789351852</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>45833.49554398148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>45905.52935185185</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>45112.50153935186</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>44454.62340277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>44939</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>45837.88903935185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>45838.5287962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>45317.64331018519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>45041</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>45009.42696759259</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44460.50841435185</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45013</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>44965.67059027778</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45617</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45600.46143518519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45842.42921296296</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45622.69251157407</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45841.49510416666</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45908.83310185185</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45841.4927662037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>45841.42</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>45841.44262731481</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45841.42442129629</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>45737.68915509259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         <v>45737.68998842593</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45841.49357638889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         <v>45841.44113425926</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         <v>45841.49430555556</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         <v>45841.43451388889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         <v>45841.39407407407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>45904.66633101852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>45831.36836805556</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>45843.32826388889</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>45843.33149305556</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17014,7 +17014,7 @@
         <v>45204.4794212963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44472.45174768518</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>45843.32988425926</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>45671.3547337963</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17242,7 +17242,7 @@
         <v>45776.54270833333</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>45911.39112268519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>45848</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>45791.82400462963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45747</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
         <v>45847.32769675926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>44264</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45692.76652777778</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>45645.24053240741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>45637.48994212963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44956</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>45916.5824074074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>45014.67738425926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>45719</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>45631</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>45702.37709490741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45702.38725694444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45721</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45922.64782407408</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45791.82179398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45630.84928240741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>45919.29105324074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45922.64466435185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45922.6462962963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45922.64138888889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45922.65359953704</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45923.66177083334</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45924.58665509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45924</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45924</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45924.58829861111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45924</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45154</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45870.48773148148</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45926.69854166666</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45930.56075231481</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45732.85637731481</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44974</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44974</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45930.56141203704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44985</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45873.71123842592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45460.38153935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45140.485</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45874.44326388889</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45694.66690972223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45198</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44826</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45694.52599537037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45880.72608796296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>45880.72768518519</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45713.53767361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>45880</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45880.72895833333</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44382.60047453704</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>45931.48114583334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44988.48039351852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>45880</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>45881.43841435185</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>45881.44418981481</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>45680.36491898148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44344</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44804</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>45277</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45677</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>45732.43990740741</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>45937</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>45063.37902777778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>45670</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>45169</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>45077</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>45083.58858796296</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>45069</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>45943</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45943.68398148148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>45700.58738425926</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>45481.53797453704</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>45760</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>45760</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>45760</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45942.47396990741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>44826</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45944.81758101852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>45163</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45757</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22258,7 +22258,7 @@
         <v>45947.37923611111</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22315,7 +22315,7 @@
         <v>45946.9609375</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45275</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45732.44554398148</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>44608</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22543,7 +22543,7 @@
         <v>44858</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22600,7 +22600,7 @@
         <v>45096</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22657,7 +22657,7 @@
         <v>45937</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22714,7 +22714,7 @@
         <v>44928</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         <v>44928.61333333333</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45951</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>45951</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22942,7 +22942,7 @@
         <v>45380.30173611111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>45953.6449537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44586.58008101852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>45953.84179398148</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44664</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>45109.71393518519</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>45732.45341435185</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>45391.76744212963</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45391.76984953704</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23455,7 +23455,7 @@
         <v>45013</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23512,7 +23512,7 @@
         <v>45610</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         <v>45380</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>44487.27475694445</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23683,7 +23683,7 @@
         <v>45959.71396990741</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         <v>44665</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23797,7 +23797,7 @@
         <v>45964.6665625</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23854,7 +23854,7 @@
         <v>45964.28807870371</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23911,7 +23911,7 @@
         <v>44992.46184027778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>45965.39746527778</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>45562</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>45408.63834490741</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24149,7 +24149,7 @@
         <v>44819.28025462963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
         <v>44484.45483796296</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>44453.40046296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45277.82450231481</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45163</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24434,7 +24434,7 @@
         <v>45335</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24491,7 +24491,7 @@
         <v>45335.73070601852</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24548,7 +24548,7 @@
         <v>45290</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24605,7 +24605,7 @@
         <v>44993.72670138889</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44956</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>45275.70342592592</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45969.8789699074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>45970.32664351852</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>45106</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>45973</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>45373.63032407407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44946</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45760</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45259.51030092593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45975.55768518519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>45590.94525462963</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>45275</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>45980</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45980.65744212963</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45109</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>45109</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>45132</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44609</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45166.47346064815</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45980.36643518518</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45148</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>45211.99126157408</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>45275</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45579.48553240741</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45190</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45602.38793981481</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45552</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>45985</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45986.45755787037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45446</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45611</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45742.76833333333</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>45503</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>45987.46350694444</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>45118</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45335.7203125</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>45111</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>45992</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>45645.2422337963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45622.68585648148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45994.2549074074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>45992.95173611111</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>45995</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>45210</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45995.6600925926</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>44594</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>45281.60759259259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44988.55130787037</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44816</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45999.5750462963</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45601.49810185185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>46041.36143518519</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45671.94960648148</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45162</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45999.59483796296</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45372</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45372</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45372</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>46041.35619212963</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>46000.79586805555</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>44664</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>45611</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45103.36048611111</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>46001.60348379629</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>46000.80445601852</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>46000.79803240741</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45695.5090625</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>45168.32784722222</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>45694.52530092592</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>46043.4240162037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45709</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45685.7355787037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>46044</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>45083</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>46048.35840277778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>46048.37540509259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45702.38320601852</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>45721</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>45685.68592592593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45720</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>46049.57417824074</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>46008.30789351852</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>46008.30554398148</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>46048</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>44776.37015046296</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>46044.34333333333</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>46052</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>45187.41074074074</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>45188</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>45188.47842592592</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>45751.64454861111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44432.31958333333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44418.6292824074</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>45733</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30154,7 +30154,7 @@
         <v>46051.84416666667</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30211,7 +30211,7 @@
         <v>46051.42804398148</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30268,7 +30268,7 @@
         <v>46010.66601851852</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30325,7 +30325,7 @@
         <v>46055</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30382,7 +30382,7 @@
         <v>46056.53222222222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>46055.6831712963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45460.23820601852</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>46055.68438657407</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45189</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>44699.73524305555</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45695.51128472222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45259.57592592593</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30838,7 +30838,7 @@
         <v>44274.85268518519</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -30895,7 +30895,7 @@
         <v>45169</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>46057</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31014,7 +31014,7 @@
         <v>45760</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31071,7 +31071,7 @@
         <v>45306</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31128,7 +31128,7 @@
         <v>46056.53511574074</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45309</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>46059.69574074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31299,7 +31299,7 @@
         <v>45734.44627314815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31356,7 +31356,7 @@
         <v>45302.68533564815</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31413,7 +31413,7 @@
         <v>46061.85453703703</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31470,7 +31470,7 @@
         <v>46020.64570601852</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45245</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45215.55824074074</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>46059.69427083333</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31703,7 +31703,7 @@
         <v>45771.44607638889</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45299</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>45219</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31874,7 +31874,7 @@
         <v>45320.69017361111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>45316</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>45361.83712962963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>46021.3608912037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45213</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45734.65965277778</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45211.98679398148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44956.70082175926</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32335,7 +32335,7 @@
         <v>44874.65327546297</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>45259.51289351852</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>45742</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32506,7 +32506,7 @@
         <v>45009.42462962963</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>46030.68255787037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32620,7 +32620,7 @@
         <v>46057.72910879629</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32677,7 +32677,7 @@
         <v>45562</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32739,7 +32739,7 @@
         <v>45919</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32816,7 +32816,7 @@
         <v>46070</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32878,7 +32878,7 @@
         <v>46071.82902777778</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -32935,7 +32935,7 @@
         <v>46071.83018518519</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45496.69783564815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45264.82974537037</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45113.59415509259</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45328.54533564814</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>45625.46094907408</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45488</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33334,7 +33334,7 @@
         <v>46074.68564814814</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33391,7 +33391,7 @@
         <v>44904.68769675926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33448,7 +33448,7 @@
         <v>45279.35089120371</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33505,7 +33505,7 @@
         <v>44904.69564814815</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33562,7 +33562,7 @@
         <v>44984.64765046296</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45770.86675925926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33676,7 +33676,7 @@
         <v>45308</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33733,7 +33733,7 @@
         <v>45693.58241898148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>44460</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44881</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>45754.70548611111</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45551.65130787037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45187.41255787037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>44902</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44356.83127314815</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44603</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44541.81983796296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45475.38969907408</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>46038.66329861111</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44260</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>45402.23428240741</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34531,7 +34531,7 @@
         <v>45448</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34588,7 +34588,7 @@
         <v>45184</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34645,7 +34645,7 @@
         <v>45091.8662962963</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34702,7 +34702,7 @@
         <v>45162</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34759,7 +34759,7 @@
         <v>46029</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34816,7 +34816,7 @@
         <v>45590.92597222222</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34873,7 +34873,7 @@
         <v>46029</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -34930,7 +34930,7 @@
         <v>45412.40754629629</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -34987,7 +34987,7 @@
         <v>46079</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35049,7 +35049,7 @@
         <v>45343</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         <v>45595.87626157407</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35163,7 +35163,7 @@
         <v>45270</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35220,7 +35220,7 @@
         <v>45595.88085648148</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35277,7 +35277,7 @@
         <v>45604.37716435185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35334,7 +35334,7 @@
         <v>44916.56637731481</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35391,7 +35391,7 @@
         <v>45618.70239583333</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35448,7 +35448,7 @@
         <v>44873.6115625</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35505,7 +35505,7 @@
         <v>45372</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35562,7 +35562,7 @@
         <v>45069.67884259259</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35619,7 +35619,7 @@
         <v>45277</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35676,7 +35676,7 @@
         <v>44976.42289351852</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35733,7 +35733,7 @@
         <v>44980.61770833333</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35790,7 +35790,7 @@
         <v>44484.38644675926</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35847,7 +35847,7 @@
         <v>45376</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35904,7 +35904,7 @@
         <v>45154.79920138889</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -35961,7 +35961,7 @@
         <v>45021.62957175926</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36018,7 +36018,7 @@
         <v>45188.2929050926</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45302.73747685185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>45372</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         <v>45372</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>45370.62805555556</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36303,7 +36303,7 @@
         <v>44902</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36360,7 +36360,7 @@
         <v>45412.52857638889</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36417,7 +36417,7 @@
         <v>45616.31275462963</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36474,7 +36474,7 @@
         <v>45182</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36536,7 +36536,7 @@
         <v>45454.29613425926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36593,7 +36593,7 @@
         <v>44564</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36650,7 +36650,7 @@
         <v>45303.49871527778</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36707,7 +36707,7 @@
         <v>45595.87185185185</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36764,7 +36764,7 @@
         <v>45460.23224537037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45238.70225694445</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36878,7 +36878,7 @@
         <v>45099</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -36935,7 +36935,7 @@
         <v>44873.59988425926</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -36992,7 +36992,7 @@
         <v>45614.85831018518</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37049,7 +37049,7 @@
         <v>45602.39266203704</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         <v>45680.34590277778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37163,7 +37163,7 @@
         <v>45617.44506944445</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37220,7 +37220,7 @@
         <v>45692</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37277,7 +37277,7 @@
         <v>45708.71021990741</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>44659</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37391,7 +37391,7 @@
         <v>45008.58983796297</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37448,7 +37448,7 @@
         <v>45566.3941550926</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37505,7 +37505,7 @@
         <v>45046</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37562,7 +37562,7 @@
         <v>45236.29085648148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45181.67774305555</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37676,7 +37676,7 @@
         <v>45671.36034722222</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37733,7 +37733,7 @@
         <v>44463.60155092592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37790,7 +37790,7 @@
         <v>45056.50663194444</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37847,7 +37847,7 @@
         <v>45704</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -37904,7 +37904,7 @@
         <v>45238.69797453703</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -37961,7 +37961,7 @@
         <v>45257.60269675926</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38018,7 +38018,7 @@
         <v>45343.63950231481</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38075,7 +38075,7 @@
         <v>45448</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45751.64311342593</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38189,7 +38189,7 @@
         <v>45610.79056712963</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38246,7 +38246,7 @@
         <v>45756</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>45365.69532407408</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38360,7 +38360,7 @@
         <v>45748</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>45644</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45625</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38536,7 +38536,7 @@
         <v>45734.39568287037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38593,7 +38593,7 @@
         <v>45713.55327546296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45328.40877314815</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38707,7 +38707,7 @@
         <v>45328</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45238.67873842592</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38821,7 +38821,7 @@
         <v>45215.84091435185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38878,7 +38878,7 @@
         <v>45776.53418981482</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -38935,7 +38935,7 @@
         <v>45776.85799768518</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -38992,7 +38992,7 @@
         <v>45784.65938657407</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39049,7 +39049,7 @@
         <v>45784.67052083334</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         <v>45615.73449074074</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45785.59581018519</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39220,7 +39220,7 @@
         <v>45599.49371527778</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39277,7 +39277,7 @@
         <v>44605.34027777778</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39334,7 +39334,7 @@
         <v>45320</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>45791.79378472222</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39448,7 +39448,7 @@
         <v>45791.80203703704</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39505,7 +39505,7 @@
         <v>45791.80574074074</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39562,7 +39562,7 @@
         <v>45586.38421296296</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39619,7 +39619,7 @@
         <v>45791.79814814815</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39676,7 +39676,7 @@
         <v>45791.8044212963</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
         <v>45791.81430555556</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
         <v>45791.85385416666</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39847,7 +39847,7 @@
         <v>45796.61146990741</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -39909,7 +39909,7 @@
         <v>45795.42396990741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -39966,7 +39966,7 @@
         <v>45795.41767361111</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40023,7 +40023,7 @@
         <v>45260.5359837963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40080,7 +40080,7 @@
         <v>45728.48049768519</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40137,7 +40137,7 @@
         <v>45737.42380787037</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40194,7 +40194,7 @@
         <v>45728</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40251,7 +40251,7 @@
         <v>45742</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40308,7 +40308,7 @@
         <v>45723.3394675926</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40365,7 +40365,7 @@
         <v>45733.47133101852</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40422,7 +40422,7 @@
         <v>45356.42046296296</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40479,7 +40479,7 @@
         <v>45729.67428240741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40536,7 +40536,7 @@
         <v>45729</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40593,7 +40593,7 @@
         <v>45800.37456018518</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40650,7 +40650,7 @@
         <v>45799.76940972222</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>45267</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40764,7 +40764,7 @@
         <v>45803.60734953704</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40821,7 +40821,7 @@
         <v>45804</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40878,7 +40878,7 @@
         <v>45804.4540162037</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
